--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1045.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1045.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.25682145984845</v>
+        <v>1.117801666259766</v>
       </c>
       <c r="B1">
-        <v>2.541660347514535</v>
+        <v>1.779040694236755</v>
       </c>
       <c r="C1">
-        <v>2.173672711604233</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.900725087071774</v>
+        <v>1.900094509124756</v>
       </c>
       <c r="E1">
-        <v>1.541917078962791</v>
+        <v>1.115370035171509</v>
       </c>
     </row>
   </sheetData>
